--- a/munkalehetosegek_.xlsx
+++ b/munkalehetosegek_.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicorvinus-my.sharepoint.com/personal/aron_muntean_stud_uni-corvinus_hu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bercelkovalik/Documents./CORVINUS/Döntési_technikák/dontesi_tech/d-nt-si_technik-k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="8_{02A025B9-9093-4B02-BAB0-5B049692B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD08A18F-D33B-E84D-A70D-A26A307476CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC6F084-8720-AE44-81A8-EC2341DB9DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="1" xr2:uid="{D094F1CE-7485-463A-B663-AF8E47833046}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{D094F1CE-7485-463A-B663-AF8E47833046}"/>
   </bookViews>
   <sheets>
     <sheet name="Börzén lévő állásajánlatok" sheetId="1" r:id="rId1"/>
     <sheet name="Egyéb állásajánlatok" sheetId="2" r:id="rId2"/>
+    <sheet name="Térkép" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Szeletelő_Ajánlott_Szak">#N/A</definedName>
@@ -33,7 +34,6 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
         <x14:slicerCache r:id="rId4"/>
         <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
@@ -41,6 +41,7 @@
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1292,7 +1293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,7 +1381,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Avenir"/>
-      <charset val="77"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2754,6 +2755,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412504</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478ABC94-F5EF-6995-FC48-6ABE7F39CC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="88900"/>
+          <a:ext cx="11144004" cy="5422900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Szeletelő_Ajánlott_Szak" xr10:uid="{0470CFF1-29C6-4D5C-97CC-45F5047B5D83}" sourceName="Ajánlott Szak">
   <extLst>
@@ -3236,28 +3286,28 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="8.7421875" style="5"/>
-    <col min="4" max="4" width="23.67578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.6875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.04296875" customWidth="1"/>
-    <col min="8" max="8" width="34.4375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.37109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.4375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.80078125" customWidth="1"/>
-    <col min="12" max="12" width="55.2890625" customWidth="1"/>
-    <col min="13" max="13" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="5"/>
+    <col min="4" max="4" width="23.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" customWidth="1"/>
+    <col min="12" max="12" width="55.33203125" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="48" customHeight="1"/>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="32.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3288,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="162" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="192">
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="176">
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="160">
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3366,7 +3416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="80">
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +3442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="162" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="192">
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
@@ -3418,7 +3468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="208">
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -3444,7 +3494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="144">
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3470,7 +3520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="296.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="335">
       <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
@@ -3496,7 +3546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="192">
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3522,7 +3572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="144">
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3548,7 +3598,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="162" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="176">
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
@@ -3574,7 +3624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="128">
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
@@ -3600,7 +3650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="64">
       <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3626,7 +3676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="128">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
@@ -3652,7 +3702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="6:13" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:13" ht="192">
       <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
@@ -3678,7 +3728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="6:13" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" ht="64">
       <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
@@ -3704,7 +3754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="6:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" ht="109.5" customHeight="1">
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
@@ -3730,7 +3780,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="6:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" ht="137.25" customHeight="1">
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3756,7 +3806,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="6:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:13" ht="105.75" customHeight="1">
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
@@ -3782,7 +3832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="6:13" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" ht="64">
       <c r="F22" s="2" t="s">
         <v>39</v>
       </c>
@@ -3808,7 +3858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="6:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:13" ht="144">
       <c r="F23" s="2" t="s">
         <v>39</v>
       </c>
@@ -3834,7 +3884,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="6:13" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:13" ht="156" customHeight="1">
       <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
@@ -3860,7 +3910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="6:13" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:13" ht="192.75" customHeight="1">
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
@@ -3886,7 +3936,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="6:13" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:13" ht="226.5" customHeight="1">
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -3912,7 +3962,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="6:13" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:13" ht="228" customHeight="1">
       <c r="F27" s="2" t="s">
         <v>39</v>
       </c>
@@ -3938,7 +3988,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="6:13" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:13" ht="205.5" customHeight="1">
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
@@ -3964,7 +4014,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="6:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:13" ht="240.75" customHeight="1">
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
@@ -3990,7 +4040,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="6:13" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:13" ht="135" customHeight="1">
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4016,7 +4066,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="6:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:13" ht="144">
       <c r="F31" s="2" t="s">
         <v>39</v>
       </c>
@@ -4042,7 +4092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="6:13" ht="269.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:13" ht="304">
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
@@ -4068,7 +4118,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="6:13" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:13" ht="288">
       <c r="F33" s="2" t="s">
         <v>39</v>
       </c>
@@ -4094,7 +4144,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="6:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:13" ht="112">
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -4120,7 +4170,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="6:13" ht="135" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:13" ht="160">
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
@@ -4146,7 +4196,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="6:13" ht="162" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:13" ht="192">
       <c r="F36" s="2" t="s">
         <v>39</v>
       </c>
@@ -4172,7 +4222,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="6:13" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:13" ht="192">
       <c r="F37" s="2" t="s">
         <v>39</v>
       </c>
@@ -4198,7 +4248,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="6:13" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:13" ht="176">
       <c r="F38" s="2" t="s">
         <v>39</v>
       </c>
@@ -4224,7 +4274,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="6:13" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:13" ht="192">
       <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
@@ -4250,7 +4300,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="6:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:13" ht="112">
       <c r="F40" s="2" t="s">
         <v>16</v>
       </c>
@@ -4276,7 +4326,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="6:13" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:13" ht="80">
       <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
@@ -4302,7 +4352,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="6:13" ht="81" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:13" ht="96">
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
@@ -4326,7 +4376,7 @@
       </c>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="6:13" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:13" ht="80">
       <c r="F43" s="2" t="s">
         <v>8</v>
       </c>
@@ -4352,7 +4402,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="6:13" ht="81" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:13" ht="96">
       <c r="F44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4378,7 +4428,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="6:13" ht="117.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:13" ht="136">
       <c r="F45" s="2" t="s">
         <v>8</v>
       </c>
@@ -4404,7 +4454,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="6:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:13" ht="144">
       <c r="F46" s="2" t="s">
         <v>8</v>
       </c>
@@ -4430,7 +4480,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="6:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:13" ht="128">
       <c r="F47" s="2" t="s">
         <v>39</v>
       </c>
@@ -4456,7 +4506,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="6:13" ht="108.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:13" ht="112">
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
@@ -4482,7 +4532,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="49" spans="6:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:13" ht="17">
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4492,7 +4542,7 @@
       <c r="L49" s="31"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="6:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:13" ht="16">
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4619,25 +4669,25 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.82421875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.14453125" style="9"/>
-    <col min="3" max="3" width="21.38671875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.14453125" style="9"/>
-    <col min="5" max="5" width="3.8984375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.73828125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.97265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.46875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.65625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.58203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.23046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.23828125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="35.109375" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9.14453125" style="10"/>
+    <col min="1" max="1" width="2.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="9"/>
+    <col min="3" max="3" width="21.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="9"/>
+    <col min="5" max="5" width="3.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.1640625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="35.1640625" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="46.5" customHeight="1">
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -4647,7 +4697,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="33.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -4678,7 +4728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="80">
       <c r="E3" s="14"/>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -4705,7 +4755,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="80">
       <c r="E4" s="14"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -4732,7 +4782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="80">
       <c r="E5" s="14"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -4759,7 +4809,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="144">
       <c r="E6" s="14"/>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -4786,7 +4836,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="96">
       <c r="E7" s="14"/>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -4813,7 +4863,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="144">
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4839,7 +4889,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="112">
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
@@ -4865,7 +4915,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="112">
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
@@ -4891,7 +4941,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="160">
       <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4917,7 +4967,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="112">
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4943,7 +4993,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="96">
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
@@ -4969,7 +5019,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="128">
       <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
@@ -4995,7 +5045,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="96">
       <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
@@ -5021,7 +5071,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="80">
       <c r="F16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5047,7 +5097,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="6:13" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:13" ht="112">
       <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
@@ -5073,7 +5123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="6:13" ht="108" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" ht="128">
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
@@ -5099,7 +5149,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="6:13" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" ht="128">
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
@@ -5125,7 +5175,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="6:13" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" ht="64">
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5151,7 +5201,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="6:13" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:13" ht="64">
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
@@ -5177,7 +5227,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="6:13" ht="81" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" ht="96">
       <c r="F22" s="2" t="s">
         <v>39</v>
       </c>
@@ -5203,7 +5253,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:13">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5213,7 +5263,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="6:13" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:13" ht="64">
       <c r="F24" s="2"/>
       <c r="G24" s="21" t="s">
         <v>328</v>
@@ -5283,7 +5333,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E7B36-2640-1E42-A8CF-F93C59324C6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f39c146-954d-4f26-a811-b692fd1d4d6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023A6448950BFC04EB0C2782C8270A3EE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a84b417e9fa09c9c5bd13d759a1c3448">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f39c146-954d-4f26-a811-b692fd1d4d6b" xmlns:ns4="fc5af292-9b51-4171-85a3-4465ac31c4dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c155d91549e6b0fbfb0ddd0ef941863" ns3:_="" ns4:_="">
     <xsd:import namespace="5f39c146-954d-4f26-a811-b692fd1d4d6b"/>
@@ -5510,32 +5592,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f39c146-954d-4f26-a811-b692fd1d4d6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A659C2-C426-4339-BF0D-02B2899F8E8D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E91FA5-6AB7-49AB-9B34-E01727FB4328}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="5f39c146-954d-4f26-a811-b692fd1d4d6b"/>
-    <ds:schemaRef ds:uri="fc5af292-9b51-4171-85a3-4465ac31c4dc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5549,12 +5613,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22E91FA5-6AB7-49AB-9B34-E01727FB4328}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A659C2-C426-4339-BF0D-02B2899F8E8D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="5f39c146-954d-4f26-a811-b692fd1d4d6b"/>
+    <ds:schemaRef ds:uri="fc5af292-9b51-4171-85a3-4465ac31c4dc"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="5f39c146-954d-4f26-a811-b692fd1d4d6b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>